--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676E251-5847-48E8-9DF2-1EBCAADFF003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31405EA5-EB7B-4C7A-9178-65F2E9D71EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
   <si>
     <t>S.No</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Valid Palindrome</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Valid parenthesis</t>
   </si>
   <si>
@@ -236,6 +233,36 @@
   </si>
   <si>
     <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(n + m)</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>hashing</t>
+  </si>
+  <si>
+    <t>valid anagram</t>
+  </si>
+  <si>
+    <t>o(n)</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
+  </si>
+  <si>
+    <t>O(n+m)</t>
+  </si>
+  <si>
+    <t>kmp</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>fast and slow pointer (rabbit and tortoise</t>
   </si>
 </sst>
 </file>
@@ -280,12 +307,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -315,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -323,6 +356,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +578,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -550,7 +587,8 @@
     <col min="2" max="2" width="50.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="6" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,144 +612,186 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -725,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -739,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -753,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -767,10 +847,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -781,10 +861,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -795,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -809,10 +889,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -823,10 +903,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -837,10 +917,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -851,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -865,10 +945,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -879,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -893,10 +973,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -907,10 +987,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -921,10 +1001,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -935,10 +1015,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -949,10 +1029,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -963,10 +1043,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -977,10 +1057,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -991,10 +1071,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1005,10 +1085,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1019,10 +1099,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1033,10 +1113,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1047,10 +1127,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1061,10 +1141,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1075,10 +1155,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1089,10 +1169,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1103,10 +1183,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1117,10 +1197,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1131,10 +1211,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1145,10 +1225,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1159,10 +1239,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1173,10 +1253,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1187,10 +1267,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1201,10 +1281,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1215,10 +1295,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1229,10 +1309,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1243,10 +1323,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1257,10 +1337,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1271,10 +1351,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1286,35 +1366,35 @@
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31405EA5-EB7B-4C7A-9178-65F2E9D71EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DF6BAB-C4FF-474D-B23B-862D3DFE5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>S.No</t>
   </si>
@@ -263,6 +263,21 @@
   </si>
   <si>
     <t>fast and slow pointer (rabbit and tortoise</t>
+  </si>
+  <si>
+    <t>O(n) + O(n)</t>
+  </si>
+  <si>
+    <t>dfs using stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfs  </t>
+  </si>
+  <si>
+    <t>bit manupilation</t>
+  </si>
+  <si>
+    <t>dynamic programming</t>
   </si>
 </sst>
 </file>
@@ -578,7 +593,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -782,51 +797,75 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+      <c r="D10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+      <c r="D11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+      <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DF6BAB-C4FF-474D-B23B-862D3DFE5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCEB35-B9CF-4C72-8231-F81ADE7EE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>S.No</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>dynamic programming</t>
+  </si>
+  <si>
+    <t>for loop</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -867,47 +870,65 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCEB35-B9CF-4C72-8231-F81ADE7EE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EA171-7B8B-4C89-8D02-42D83FE6A831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>S.No</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>for loop</t>
+  </si>
+  <si>
+    <t>greedy</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -930,47 +933,59 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307EA171-7B8B-4C89-8D02-42D83FE6A831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223964D-B138-42C5-B3AE-92218A086F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>S.No</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>two pointers + greedy</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>sliding window</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -983,51 +992,75 @@
       <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223964D-B138-42C5-B3AE-92218A086F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072453D0-C4FF-49DE-8676-C2F17306653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>S.No</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>sliding window</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>linked list</t>
   </si>
 </sst>
 </file>
@@ -607,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1062,47 +1068,65 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072453D0-C4FF-49DE-8676-C2F17306653D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EE8543-82C8-479A-BB55-E3DCFA34B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>S.No</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>linked list</t>
+  </si>
+  <si>
+    <t>hashmap, list in cpp</t>
+  </si>
+  <si>
+    <t>recursion</t>
   </si>
 </sst>
 </file>
@@ -613,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1128,61 +1134,85 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
+    <row r="26" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EE8543-82C8-479A-BB55-E3DCFA34B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3762F-E766-4178-A6B3-8238E6FB1F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
   <si>
     <t>S.No</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>recursion</t>
+  </si>
+  <si>
+    <t>bfs</t>
+  </si>
+  <si>
+    <t>O()</t>
   </si>
 </sst>
 </file>
@@ -619,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1214,33 +1220,45 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
+    <row r="30" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3762F-E766-4178-A6B3-8238E6FB1F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC8F023-89AC-45D1-A9C6-536E22E96089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="99">
   <si>
     <t>S.No</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>O()</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>trie</t>
+  </si>
+  <si>
+    <t>O(m*n*4^k)</t>
+  </si>
+  <si>
+    <t>dfs + backtracking</t>
   </si>
 </sst>
 </file>
@@ -625,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1260,47 +1272,65 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
+      <c r="C33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="C34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC8F023-89AC-45D1-A9C6-536E22E96089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CD8CC8-22DA-4C89-8BC8-BDCEB11F9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
   <si>
     <t>S.No</t>
   </si>
@@ -323,6 +323,21 @@
   </si>
   <si>
     <t>dfs + backtracking</t>
+  </si>
+  <si>
+    <t>O(k * C(n, k))</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>O(N^2)</t>
+  </si>
+  <si>
+    <t>O(logN)</t>
+  </si>
+  <si>
+    <t>binary search</t>
   </si>
 </sst>
 </file>
@@ -637,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1332,47 +1347,63 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
+      <c r="C35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
+      <c r="C36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="C37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CD8CC8-22DA-4C89-8BC8-BDCEB11F9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EC903-668F-4B50-B70A-61794224C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
   <si>
     <t>S.No</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>binary search</t>
+  </si>
+  <si>
+    <t>priority_queue(min heap)</t>
+  </si>
+  <si>
+    <t>dynamic programming (2d but can be optimised to 1D)</t>
+  </si>
+  <si>
+    <t>dynamic programming(1D)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -663,7 +672,7 @@
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1405,47 +1414,65 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
+      <c r="C38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="C40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EC903-668F-4B50-B70A-61794224C489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3809515-A7E1-4E7A-B677-A4C28C5ABF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>S.No</t>
   </si>
@@ -347,17 +347,33 @@
   </si>
   <si>
     <t>dynamic programming(1D)</t>
+  </si>
+  <si>
+    <t>dynamic programing</t>
+  </si>
+  <si>
+    <t>while loop first l=I and r=I then l--,r++ then l=I and r=i+1</t>
+  </si>
+  <si>
+    <t>dynamic programing here we will give default value for first row and first coloumn as i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,18 +448,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -672,7 +700,7 @@
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="45.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48.77734375" customWidth="1"/>
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1474,47 +1502,65 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
+      <c r="C41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
+      <c r="C42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="C43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3809515-A7E1-4E7A-B677-A4C28C5ABF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663B9DE-457B-461E-B82D-630A70B342B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="C5O2KLwteAc19DY+FxbtwCg0vR4RebMhP1/dwJFzdNU="/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
   <si>
     <t>S.No</t>
   </si>
@@ -356,6 +365,9 @@
   </si>
   <si>
     <t>dynamic programing here we will give default value for first row and first coloumn as i</t>
+  </si>
+  <si>
+    <t>dynamic programming pick or not pick</t>
   </si>
 </sst>
 </file>
@@ -689,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1562,47 +1574,59 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
+      <c r="D44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
+      <c r="D45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663B9DE-457B-461E-B82D-630A70B342B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DAA81-6441-403D-92AC-2EC1567A8FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
   <si>
     <t>S.No</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>dynamic programming pick or not pick</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1624,37 +1627,55 @@
       <c r="C46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
+      <c r="D46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
+      <c r="D47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="D48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">

--- a/SDE 2026 - Rating.xlsx
+++ b/SDE 2026 - Rating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academics\New_folder\competitive programng\50-days challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DAA81-6441-403D-92AC-2EC1567A8FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5513D-5B8A-4BBC-AF74-12746F62B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="116">
   <si>
     <t>S.No</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>O(N!)</t>
+  </si>
+  <si>
+    <t>sliding window + hashing</t>
+  </si>
+  <si>
+    <t>O(k+n)</t>
+  </si>
+  <si>
+    <t>binary search + 2d dynamic programming</t>
   </si>
 </sst>
 </file>
@@ -463,12 +475,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -704,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -739,1020 +750,1038 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+    <row r="22" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="C25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
+    <row r="26" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
+    <row r="27" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
+    <row r="29" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="C29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
+    <row r="30" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
+    <row r="31" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7">
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7">
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7">
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7">
+    <row r="36" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7">
+    <row r="37" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7">
+    <row r="38" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7">
+    <row r="39" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7">
+    <row r="41" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7">
+    <row r="42" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+    <row r="43" spans="1:6" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="7">
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7">
+    <row r="45" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="7">
+    <row r="46" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7">
+    <row r="47" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="7">
+    <row r="48" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
+    <row r="49" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
+      <c r="D49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
+      <c r="D50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="D51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="5"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>65</v>
       </c>
     </row>
